--- a/data/Aug 2023 MHDR/perinatal deaths by province_monthly.xlsx
+++ b/data/Aug 2023 MHDR/perinatal deaths by province_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Aug 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C008B64A-1212-4F02-8686-247B46C28373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336D4749-8F8C-4079-96BF-72E904079BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CC76455B-1602-4ED3-87EB-8B1D3D6CF332}"/>
   </bookViews>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284376F4-204C-4DDE-A490-B666F6F9D3DD}">
   <dimension ref="A1:C595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F596" sqref="F596"/>
+    <sheetView tabSelected="1" topLeftCell="A586" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -3021,7 +3021,7 @@
         <v>67</v>
       </c>
       <c r="B216">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
